--- a/biology/Microbiologie/Nyctotheridae/Nyctotheridae.xlsx
+++ b/biology/Microbiologie/Nyctotheridae/Nyctotheridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nyctotheridae sont une famille de Ciliés de la classe des Heterotrichea et de l’ordre des Heterotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Nyctotherus, dérivé du grec ancien νυξ / nyx, « nuit », et ther, « chasser », littéralement « chasseur nocturne », sans doute en référence à sa présence en parasite dans les intestins animaux.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Nyctotherus est un organisme nageant librement, ovale ou en forme de haricot, plus ou moins comprimé, le bord étant dorsal convexe, et le ventral généralement courbé vers l'intérieur. L'excavation du champ de péristome, commençant un peu en arrière de l'extrémité apicale, se poursuit en forme de fente sur la face ventrale jusqu'au centre du corps, et s'y développe en arrière et en dedans pour rencontrer le pharynx cilié bien développé. Le bord gauche du péristome ne porte que les cils adoraux (c'est-à-dire situés près de l'appareil buccal). L’ouverture anale est visible en permanence sous la forme d'une fissure en forme de fente, et continue avec un court passage rectal tubulaire. La vésicule contractile est généralement unique et en position subterminale. L’endoplaste plus ou moins ovale, est situé mésialement (sur la partie médiane) en avant de la fente pharyngée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Nyctotherus est un organisme nageant librement, ovale ou en forme de haricot, plus ou moins comprimé, le bord étant dorsal convexe, et le ventral généralement courbé vers l'intérieur. L'excavation du champ de péristome, commençant un peu en arrière de l'extrémité apicale, se poursuit en forme de fente sur la face ventrale jusqu'au centre du corps, et s'y développe en arrière et en dedans pour rencontrer le pharynx cilié bien développé. Le bord gauche du péristome ne porte que les cils adoraux (c'est-à-dire situés près de l'appareil buccal). L’ouverture anale est visible en permanence sous la forme d'une fissure en forme de fente, et continue avec un court passage rectal tubulaire. La vésicule contractile est généralement unique et en position subterminale. L’endoplaste plus ou moins ovale, est situé mésialement (sur la partie médiane) en avant de la fente pharyngée.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Nyctotherus sont des parasites des cavités intestinales des amphibiens et des invertébrés[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Nyctotherus sont des parasites des cavités intestinales des amphibiens et des invertébrés.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 janvier 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 janvier 2023) :
 Aduncuperistomatus Amaro &amp; Sena, 1968
 Cameronyctus Jankowski 1986 synonyme Paranyctotherus Ngasssam, 1983
 Cichlidotherus Affa'a, 1989
@@ -616,7 +636,7 @@
 Metanyctotherus Albaret, 1970
 Nyctositum Affa'a, 1979
 Nyctotheroides Grassé, 1928
-Nyctotherus Leidy, 1849 [3] genre type
+Nyctotherus Leidy, 1849  genre type
 Espèce type : Nyctotherus ovalis Leidy, 1850
 Nytotherus idem. Nyctotherus
 Opalina
@@ -653,9 +673,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Nyctotheridae Amaro, 1972[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Nyctotheridae Amaro, 1972.
 </t>
         </is>
       </c>
